--- a/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
+++ b/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Electronic_Display\hdw\Logic_Board\Design_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9F1DB2-F654-441C-85A0-756B51C0E0EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA7EAE-7BBB-4BE9-8B95-A277318D64F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10020" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Peripheral Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Seiral Peripheral Interface 3</t>
   </si>
   <si>
-    <t>Allows data to be stored and retrieved from external serial FLASH memory</t>
-  </si>
-  <si>
     <t>Software Naming</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Universal Asynchronous Recevier Transmitter 1</t>
   </si>
   <si>
-    <t>Serial connection for WIFI module</t>
-  </si>
-  <si>
     <t>WIFI_UART</t>
   </si>
   <si>
@@ -81,13 +75,49 @@
     <t>Universal Asynchronous Recevier Transmitter 6</t>
   </si>
   <si>
-    <t>Serial connection for USB debugging</t>
-  </si>
-  <si>
     <t>USB_UART</t>
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>WDT</t>
+  </si>
+  <si>
+    <t>Watchdog Timer</t>
+  </si>
+  <si>
+    <t>watchdogTimer</t>
+  </si>
+  <si>
+    <t>Allows data to be stored and retrieved from external serial FLASH memory. There are 8 FLASH chips which each hold a slide of data for the display</t>
+  </si>
+  <si>
+    <t>Serial connection for WIFI module, used for moving image data from an android app into the embedded system</t>
+  </si>
+  <si>
+    <t>Serial connection for USB debugging, virtual COM port</t>
+  </si>
+  <si>
+    <t>Error catch, resets the microcontroller if the timer has not been cleared in 2 seconds. Timer is cleared within the heartbeat ISR (below)</t>
+  </si>
+  <si>
+    <t>TMR1</t>
+  </si>
+  <si>
+    <t>Timer 1</t>
+  </si>
+  <si>
+    <t>heartbeatTimer</t>
+  </si>
+  <si>
+    <t>Postscaler set to 2.048 seconds</t>
+  </si>
+  <si>
+    <t>Timer 1 is used as the heartbeat timer, which triggers an interrupt every second. This blinks an LED, clears the watchdog timer, and increments on time counters. Used as a 1 Hz timebase</t>
+  </si>
+  <si>
+    <t>Timer 1 period set to 61523, input frequency is 15.75 MHz, yields an IRQ rate of 1 Hz</t>
   </si>
 </sst>
 </file>
@@ -453,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3552A37-77FD-49A8-A79A-02C6EC063803}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -502,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -510,38 +540,72 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
+++ b/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Electronic_Display\hdw\Logic_Board\Design_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA7EAE-7BBB-4BE9-8B95-A277318D64F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A98C3F-2A7F-4859-B59D-F804D0472282}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10020" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Peripheral Name</t>
   </si>
@@ -69,12 +69,6 @@
     <t>WIFI_UART</t>
   </si>
   <si>
-    <t>UART6</t>
-  </si>
-  <si>
-    <t>Universal Asynchronous Recevier Transmitter 6</t>
-  </si>
-  <si>
     <t>USB_UART</t>
   </si>
   <si>
@@ -118,6 +112,15 @@
   </si>
   <si>
     <t>Timer 1 period set to 61523, input frequency is 15.75 MHz, yields an IRQ rate of 1 Hz</t>
+  </si>
+  <si>
+    <t>UART3</t>
+  </si>
+  <si>
+    <t>Universal Asynchronous Recevier Transmitter 3</t>
+  </si>
+  <si>
+    <t>Baud rate set to 115200 bps</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -540,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -554,7 +557,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -562,50 +565,53 @@
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
+++ b/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Electronic_Display\hdw\Logic_Board\Design_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A98C3F-2A7F-4859-B59D-F804D0472282}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB0994-6863-4E85-9765-ABD1C496B4AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10020" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Peripheral Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>WIFI_UART</t>
   </si>
   <si>
-    <t>USB_UART</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Postscaler set to 2.048 seconds</t>
   </si>
   <si>
-    <t>Timer 1 is used as the heartbeat timer, which triggers an interrupt every second. This blinks an LED, clears the watchdog timer, and increments on time counters. Used as a 1 Hz timebase</t>
-  </si>
-  <si>
     <t>Timer 1 period set to 61523, input frequency is 15.75 MHz, yields an IRQ rate of 1 Hz</t>
   </si>
   <si>
@@ -121,6 +115,45 @@
   </si>
   <si>
     <t>Baud rate set to 115200 bps</t>
+  </si>
+  <si>
+    <t>TMR3</t>
+  </si>
+  <si>
+    <t>Timer 3</t>
+  </si>
+  <si>
+    <t>Used for timebase for automatic ADC triggering</t>
+  </si>
+  <si>
+    <t>ADCTriggerTimer</t>
+  </si>
+  <si>
+    <t>DMT</t>
+  </si>
+  <si>
+    <t>Deadman timer</t>
+  </si>
+  <si>
+    <t>Resets the microcontroller if not cleared by the core timer ISR</t>
+  </si>
+  <si>
+    <t>Deadman Timer</t>
+  </si>
+  <si>
+    <t>Core Timer</t>
+  </si>
+  <si>
+    <t>CP0 integrated core timer, used for clearing the WDT and DMT</t>
+  </si>
+  <si>
+    <t>Timer 1 is used as the heartbeat timer, which triggers an interrupt every second. This blinks an LED and increments on time counters. Used as a 1 Hz timebase</t>
+  </si>
+  <si>
+    <t>Coretimer</t>
+  </si>
+  <si>
+    <t>usbUart</t>
   </si>
 </sst>
 </file>
@@ -486,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3552A37-77FD-49A8-A79A-02C6EC063803}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -543,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -557,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -565,53 +598,95 @@
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
+++ b/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Electronic_Display\hdw\Logic_Board\Design_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB0994-6863-4E85-9765-ABD1C496B4AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC8FA98-3091-4E50-B957-00C2012A970B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10020" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Peripheral Name</t>
   </si>
@@ -141,16 +141,7 @@
     <t>Deadman Timer</t>
   </si>
   <si>
-    <t>Core Timer</t>
-  </si>
-  <si>
-    <t>CP0 integrated core timer, used for clearing the WDT and DMT</t>
-  </si>
-  <si>
     <t>Timer 1 is used as the heartbeat timer, which triggers an interrupt every second. This blinks an LED and increments on time counters. Used as a 1 Hz timebase</t>
-  </si>
-  <si>
-    <t>Coretimer</t>
   </si>
   <si>
     <t>usbUart</t>
@@ -519,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3552A37-77FD-49A8-A79A-02C6EC063803}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +598,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -638,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -673,20 +664,6 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
+++ b/hdw/Logic_Board/Design_Files/Microcontroller_Peripheral_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Electronic_Display\hdw\Logic_Board\Design_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC8FA98-3091-4E50-B957-00C2012A970B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF8EEFE-E2AE-49B7-B8B1-3F1F87D10FC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9980" xr2:uid="{B7D91EF5-14DE-4003-8C97-5F77E28EC198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Peripheral Name</t>
   </si>
@@ -57,18 +57,12 @@
     <t>Software Naming</t>
   </si>
   <si>
-    <t>FLASH_SPI</t>
-  </si>
-  <si>
     <t>UART1</t>
   </si>
   <si>
     <t>Universal Asynchronous Recevier Transmitter 1</t>
   </si>
   <si>
-    <t>WIFI_UART</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Postscaler set to 2.048 seconds</t>
   </si>
   <si>
-    <t>Timer 1 period set to 61523, input frequency is 15.75 MHz, yields an IRQ rate of 1 Hz</t>
-  </si>
-  <si>
     <t>UART3</t>
   </si>
   <si>
@@ -135,16 +126,148 @@
     <t>Deadman timer</t>
   </si>
   <si>
-    <t>Resets the microcontroller if not cleared by the core timer ISR</t>
-  </si>
-  <si>
-    <t>Deadman Timer</t>
-  </si>
-  <si>
     <t>Timer 1 is used as the heartbeat timer, which triggers an interrupt every second. This blinks an LED and increments on time counters. Used as a 1 Hz timebase</t>
   </si>
   <si>
     <t>usbUart</t>
+  </si>
+  <si>
+    <t>Resets the microcontroller if not cleared by the heartbeat timer ISR</t>
+  </si>
+  <si>
+    <t>EBI, EBI_SRAM, etc</t>
+  </si>
+  <si>
+    <t>SPI_Flash</t>
+  </si>
+  <si>
+    <t>esp8266</t>
+  </si>
+  <si>
+    <t>Panel PWM, used for dimming panels and adjusting panel brightness</t>
+  </si>
+  <si>
+    <t>TMR2, OC4</t>
+  </si>
+  <si>
+    <t>Timer 2 and Output Compare 4</t>
+  </si>
+  <si>
+    <t>TMR5</t>
+  </si>
+  <si>
+    <t>Timer 5</t>
+  </si>
+  <si>
+    <t>Used for the main timebase for panel multiplexing. Sets the on time for LEDs in panel</t>
+  </si>
+  <si>
+    <t>panelMultiplexingTimer</t>
+  </si>
+  <si>
+    <t>DeadmanTimer</t>
+  </si>
+  <si>
+    <t>panelPWM</t>
+  </si>
+  <si>
+    <t>Timer 4</t>
+  </si>
+  <si>
+    <t>TMR4</t>
+  </si>
+  <si>
+    <t>delayTimer</t>
+  </si>
+  <si>
+    <t>Used for certain non-software delays needed for firmware execution. Only one delay can be used at once</t>
+  </si>
+  <si>
+    <t>Adjustable timer period</t>
+  </si>
+  <si>
+    <t>Change Notice F, Change Notice K</t>
+  </si>
+  <si>
+    <t>CNF, CNK</t>
+  </si>
+  <si>
+    <t>Used for GPIO input edge detection. Monitors PGOOD signals along with rotary encoder</t>
+  </si>
+  <si>
+    <t>Prefetch</t>
+  </si>
+  <si>
+    <t>Prefetch Module</t>
+  </si>
+  <si>
+    <t>Acts as a complimentary cache for the CPU while it is operating at high clock frequencies</t>
+  </si>
+  <si>
+    <t>prefetch</t>
+  </si>
+  <si>
+    <t>Wait time set to 4 wait states per datasheet</t>
+  </si>
+  <si>
+    <t>RA4, RA5, RB8, RB9, RC1, RC2, RC3, RC4, RD9, RE0, RE1, RE2, RE3, RE4, RE5, RE6, RE7, RF4, RF5, RG9, RH7, RJ4, RJ13, RJ14, RJ15, RK0, RK1, RK2, RK3</t>
+  </si>
+  <si>
+    <t>RA2, RA3, RA6, RA7, RA9, RA10, RA14, RA15, RB2, RB3, RB4, RB5, RB6, RB7, RB10, RB11, RB12, RB14, RC13, RC14</t>
+  </si>
+  <si>
+    <t>Analog to Digital Converter 7</t>
+  </si>
+  <si>
+    <t>ADC7</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Shared ADC module, used for system voltage measurement when debugging. Off by default, turned on through serial command</t>
+  </si>
+  <si>
+    <t>Used PBCLK8 as clock source. Used as data scratchpad for writing to/reading from SPI Flash during normal operation, as well as saving data sent over WiFi interface</t>
+  </si>
+  <si>
+    <t>There are 8 serial flash chips. Each stores an image to be displayed on the panels</t>
+  </si>
+  <si>
+    <t>RE8, RE9, RG7, RG8</t>
+  </si>
+  <si>
+    <t>RG0</t>
+  </si>
+  <si>
+    <t>RF0, RD10</t>
+  </si>
+  <si>
+    <t>RF1, RF3, RF8, RF12, RK4, RK5, RK7</t>
+  </si>
+  <si>
+    <t>RH0, RH1, RH4, RH5, RH6</t>
+  </si>
+  <si>
+    <t>Error Handler (in firmware)</t>
+  </si>
+  <si>
+    <t>Error Handler</t>
+  </si>
+  <si>
+    <t>error_handler.&lt;flag_name&gt;</t>
+  </si>
+  <si>
+    <t>RG1, RG6, RG13, RG14, RH3</t>
+  </si>
+  <si>
+    <t>Timer 1 period set to 61523, input frequency is 15.75 MHz, yields an IRQ rate of 1 Hz. Blinks the heartbeat LED</t>
+  </si>
+  <si>
+    <t>RG12</t>
+  </si>
+  <si>
+    <t>C structure that holds flags used for recording and reporting errors. Varias peripherals set error handler flags, and they can only be cleared through the USB UART serial interface. These flags set the state of the error LEDs on the board</t>
   </si>
 </sst>
 </file>
@@ -510,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3552A37-77FD-49A8-A79A-02C6EC063803}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,13 +662,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -556,7 +679,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -567,103 +696,234 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
